--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1229495.451083262</v>
+        <v>1227014.531257804</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>14.78118554726768</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545851</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>14.65678318579964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>121.6227159401701</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302867</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>55.7718453022034</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D13" t="n">
-        <v>61.41461951465348</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271945</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>69.43227382271181</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292085</v>
+        <v>62.012006082921</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443156</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890429</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2174967367017</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494647</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649685</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>121.2314400681847</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104935</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>66.4349386717065</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,16 +1765,16 @@
         <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>25.68011917127734</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
         <v>139.1056616719017</v>
@@ -1783,7 +1783,7 @@
         <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271161</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292085</v>
+        <v>62.01200608292083</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>205.4828509459006</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.787758414964</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>177.028532975772</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477345</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245682</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>251.93315300622</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290888</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1198840074564</v>
+        <v>74.7201898124934</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085016</v>
+        <v>134.938373635812</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721229</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330927</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860183</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411914</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652887</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477346</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816016</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245682</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>86.12002246737052</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.1475124013462</v>
+        <v>312.3426554503347</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290894</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249346</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085027</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721235</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330933</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860188</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411909</v>
+        <v>22.4571372041192</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432832</v>
+        <v>15.03686946432843</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654115</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.316554999894</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833183</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.0890643413388</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652887</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477346</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816016</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245695</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339013</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V23" t="n">
         <v>253.856975264416</v>
@@ -2384,7 +2384,7 @@
         <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503347</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290888</v>
+        <v>93.35153789290894</v>
       </c>
       <c r="D25" t="n">
-        <v>74.7201898124934</v>
+        <v>74.72018981249346</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085022</v>
+        <v>72.53867944085027</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721229</v>
+        <v>71.52576481721235</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330927</v>
+        <v>92.13052505330933</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860183</v>
+        <v>70.85973170860188</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411921</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432845</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704503</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998939</v>
+        <v>212.316554999894</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130696</v>
       </c>
       <c r="W25" t="n">
-        <v>275.0274093258339</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833183</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448877</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247752</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>89.9432660592195</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>42.20693826439328</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007076</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.3541982182264</v>
+        <v>82.1472599538322</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010726</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846408</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621569</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333682</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>163.1068713883843</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007387</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>111.7690391349162</v>
+        <v>69.56210087052274</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846429</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482615</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092313</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862159</v>
+        <v>90.60953276887776</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333702</v>
+        <v>92.0843051033368</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>128.024935160932</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
         <v>196.9230441592156</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007095</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893072</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>93.13769105450045</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.0702946862159</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4189,7 +4189,7 @@
         <v>121.8642290480643</v>
       </c>
       <c r="U46" t="n">
-        <v>188.527117977508</v>
+        <v>239.4866237999589</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4198,10 +4198,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1811.157272969164</v>
+        <v>2154.8229678559</v>
       </c>
       <c r="C11" t="n">
-        <v>1469.386823288476</v>
+        <v>1813.052518175212</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.313191941449</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489663</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597795</v>
+        <v>739.5888639597804</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810644999</v>
+        <v>351.7084810645005</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299084</v>
+        <v>81.31694793299114</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.51231048965</v>
+        <v>3202.754593386777</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.51231048965</v>
+        <v>2877.178005376386</v>
       </c>
       <c r="X11" t="n">
-        <v>2533.51231048965</v>
+        <v>2877.178005376386</v>
       </c>
       <c r="Y11" t="n">
-        <v>2170.565045773562</v>
+        <v>2514.230740660298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5136,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5151,7 +5151,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.3796066778506</v>
+        <v>778.3446374711305</v>
       </c>
       <c r="C13" t="n">
-        <v>698.6354910096674</v>
+        <v>636.6005218029471</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029461</v>
+        <v>636.6005218029471</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802767</v>
+        <v>515.8794954802776</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420901</v>
+        <v>396.1816152420909</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765327</v>
+        <v>255.6708458765333</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>136.6457263541147</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003743</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705059</v>
+        <v>368.9238220705054</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402565</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.942556361061</v>
+        <v>1082.94255636106</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229848</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162334</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.369902162336</v>
+        <v>1718.795353991584</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.459102547703</v>
+        <v>1718.795353991584</v>
       </c>
       <c r="V13" t="n">
-        <v>1651.459102547703</v>
+        <v>1491.30293304542</v>
       </c>
       <c r="W13" t="n">
-        <v>1389.233999770467</v>
+        <v>1229.077830268183</v>
       </c>
       <c r="X13" t="n">
-        <v>1188.436516132173</v>
+        <v>1028.28034662989</v>
       </c>
       <c r="Y13" t="n">
-        <v>994.8360042483665</v>
+        <v>834.6798347460831</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1781.421951016571</v>
+        <v>1931.400505076938</v>
       </c>
       <c r="C14" t="n">
-        <v>1439.651501335883</v>
+        <v>1589.63005539625</v>
       </c>
       <c r="D14" t="n">
-        <v>1108.577869988856</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E14" t="n">
         <v>1108.577869988856</v>
@@ -5270,58 +5270,58 @@
         <v>336.9036495636925</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039936</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573496</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489649</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479259</v>
+        <v>3000.02923359878</v>
       </c>
       <c r="X14" t="n">
-        <v>2140.829723820969</v>
+        <v>2653.755542597424</v>
       </c>
       <c r="Y14" t="n">
-        <v>2140.829723820969</v>
+        <v>2290.808277881336</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.4876976154937</v>
+        <v>901.2692096237413</v>
       </c>
       <c r="C16" t="n">
-        <v>664.7435819473105</v>
+        <v>759.5250939555581</v>
       </c>
       <c r="D16" t="n">
-        <v>541.8190097946983</v>
+        <v>636.6005218029461</v>
       </c>
       <c r="E16" t="n">
         <v>515.8794954802768</v>
@@ -5431,10 +5431,10 @@
         <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
         <v>368.9238220705057</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.369902162336</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1651.459102547703</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1423.96668160154</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="W16" t="n">
-        <v>1161.741578824303</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="X16" t="n">
-        <v>960.9440951860097</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="Y16" t="n">
-        <v>960.9440951860097</v>
+        <v>1055.725607194257</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1697.792834060368</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1403.472017327754</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>1119.8480189288</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>808.701466538353</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5534,31 +5534,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3194.269774201191</v>
       </c>
       <c r="U17" t="n">
-        <v>3158.620805936082</v>
+        <v>3015.380997682824</v>
       </c>
       <c r="V17" t="n">
-        <v>2902.199618800309</v>
+        <v>3015.380997682824</v>
       </c>
       <c r="W17" t="n">
-        <v>2624.072663737991</v>
+        <v>2737.254042620507</v>
       </c>
       <c r="X17" t="n">
-        <v>2325.248605684708</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y17" t="n">
-        <v>2009.750973916693</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,34 +5598,34 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>632.151773123554</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034449</v>
+        <v>537.857290403444</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>462.3823511989052</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>326.080963687984</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978706</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604109</v>
+        <v>89.19609340604116</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>885.30941668173</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459976</v>
+        <v>739.1585377459968</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5738,61 @@
         <v>966.2289711446366</v>
       </c>
       <c r="F20" t="n">
-        <v>629.884766562826</v>
+        <v>629.8847665628259</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156194</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344062</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3238.615899924959</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417714</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="V20" t="n">
-        <v>2979.732029417714</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W20" t="n">
-        <v>2701.605074355397</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X20" t="n">
-        <v>2402.781016302114</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y20" t="n">
         <v>2167.278478522977</v>
@@ -5820,13 +5820,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
         <v>160.189385922801</v>
@@ -5835,7 +5835,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,7 +5844,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872286</v>
+        <v>569.1217789872294</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671193</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625804</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879842</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978707</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803865</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604109</v>
+        <v>89.19609340604121</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729439</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.44553106288</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.40274306479</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356258</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454054</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096713</v>
+        <v>676.1285436096722</v>
       </c>
     </row>
     <row r="23">
@@ -5972,7 +5972,7 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.0946095349352</v>
       </c>
       <c r="F23" t="n">
         <v>636.7504049531249</v>
@@ -5981,43 +5981,43 @@
         <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>613.9118195062365</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1064.946032754645</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1598.47793742657</v>
+        <v>1580.642377391687</v>
       </c>
       <c r="N23" t="n">
-        <v>2145.256754485352</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2648.229225364689</v>
+        <v>2966.809946454458</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3361.584312811636</v>
       </c>
       <c r="Q23" t="n">
         <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932665</v>
@@ -6042,70 +6042,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.409492871408</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.956463590281</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290299</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235743</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504594</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830779</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094482</v>
+        <v>92.38504642094449</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243131</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934474</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061128</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293708828429</v>
+        <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923641</v>
+        <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687492</v>
+        <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
         <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590165</v>
+        <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861963</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775279</v>
+        <v>575.9874173775285</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574179</v>
+        <v>481.6929346574184</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528791</v>
+        <v>406.2179954528795</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>332.9466020782833</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>260.6983547881698</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706856</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634013</v>
+        <v>96.06173179634021</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1654.802330256062</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1440.341163589502</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1197.268381455089</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259243</v>
+        <v>982.492911625925</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357039</v>
+        <v>829.1450609357045</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999707</v>
+        <v>682.9941819999713</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F26" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,52 +6224,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2533.71485819569</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,31 +6461,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N29" t="n">
-        <v>2475.30339983534</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
         <v>3994.504809309626</v>
@@ -6506,7 +6506,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6604,13 +6604,13 @@
         <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,13 +6619,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6680,7 +6680,7 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
@@ -6689,7 +6689,7 @@
         <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,43 +6698,43 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>399.9472504130718</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>733.7666241029183</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1184.800837351327</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1718.332742023252</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2265.111559082034</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.076209411489</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
@@ -6856,25 +6856,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960309</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,7 +7032,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389139</v>
+        <v>543.5641013650704</v>
       </c>
       <c r="C37" t="n">
-        <v>473.299353011007</v>
+        <v>473.2993530110069</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725147</v>
+        <v>421.8541481725146</v>
       </c>
       <c r="E37" t="n">
-        <v>273.9410545901216</v>
+        <v>273.9410545901215</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>225.7225416660545</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>156.6911396146169</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>109.1453874063181</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891711</v>
+        <v>877.9803925153275</v>
       </c>
       <c r="X37" t="n">
-        <v>847.333710764997</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953103</v>
+        <v>626.5411316214668</v>
       </c>
     </row>
     <row r="38">
@@ -7157,64 +7157,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464978</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7245,19 +7245,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,10 +7269,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>599.6022649647791</v>
+        <v>402.2593958170916</v>
       </c>
       <c r="C40" t="n">
-        <v>529.3375166107156</v>
+        <v>331.9946474630282</v>
       </c>
       <c r="D40" t="n">
-        <v>379.2208771983799</v>
+        <v>280.549442624536</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159864</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919196</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758176</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1167.397562552289</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891715</v>
+        <v>877.9803925153276</v>
       </c>
       <c r="X40" t="n">
-        <v>847.3337107649976</v>
+        <v>649.9908416173103</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953108</v>
+        <v>485.2364260734877</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668173</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515853</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158126</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7518,16 +7518,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
         <v>1317.51949026613</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650708</v>
+        <v>740.9069705127587</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368726</v>
+        <v>670.6422221586953</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245369</v>
+        <v>520.5255827463595</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>372.6124891639664</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>324.3939762398996</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>255.3625741884621</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1167.397562552288</v>
+        <v>1364.740431699976</v>
       </c>
       <c r="W43" t="n">
-        <v>976.6518270891712</v>
+        <v>1173.994696236859</v>
       </c>
       <c r="X43" t="n">
-        <v>748.6622761911539</v>
+        <v>1044.676579912685</v>
       </c>
       <c r="Y43" t="n">
-        <v>626.5411316214671</v>
+        <v>922.5554353429984</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,28 +7646,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7679,13 +7679,13 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.538235362621</v>
@@ -7719,19 +7719,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,10 +7743,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650705</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C46" t="n">
-        <v>473.2993530110069</v>
+        <v>430.6660820368723</v>
       </c>
       <c r="D46" t="n">
-        <v>379.2208771983802</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898304</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657634</v>
+        <v>281.7607052657633</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218343</v>
@@ -7807,13 +7807,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058689</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1280.777345210197</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663014</v>
+        <v>934.0185561150363</v>
       </c>
       <c r="X46" t="n">
-        <v>847.333710764997</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953103</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430639</v>
+        <v>157.2353108430623</v>
       </c>
       <c r="K8" t="n">
-        <v>184.403943372902</v>
+        <v>184.4039433728996</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389619</v>
+        <v>191.4948909389589</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333085</v>
+        <v>181.0856325333051</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830258</v>
+        <v>179.3553748830224</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384007</v>
+        <v>182.8301554383974</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586599</v>
+        <v>190.8908035586571</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266135</v>
+        <v>192.0103836266114</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875979</v>
+        <v>112.6562001875969</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372541</v>
+        <v>113.6031223372525</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672285</v>
+        <v>105.9629718672263</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253606</v>
+        <v>104.101398125358</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677791</v>
+        <v>92.30246558677524</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359748</v>
+        <v>106.8829608359724</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798334</v>
+        <v>105.3113487798314</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615464</v>
+        <v>120.8212784615451</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564664</v>
+        <v>116.1755252564652</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085234</v>
+        <v>119.1996074085221</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140785</v>
+        <v>108.4284123140771</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530931</v>
+        <v>120.6694600530919</v>
       </c>
       <c r="P10" t="n">
-        <v>122.508085666271</v>
+        <v>122.5080856662699</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>18.01571720695171</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>339.8144253784365</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>78.40458911672783</v>
+        <v>274.8351763665432</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>343.5485285966295</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>131.2335379367245</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>167.736966642837</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719373</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>340.2290379378676</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104954</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>179.2093959428385</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913427</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>97.13998829260755</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.28070691643239</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>206.5314549653718</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104937</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>276.3760154196361</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>93.83369688816535</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>54.12000080356386</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>155.9522295602204</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,22 +23780,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>43.90266446653005</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245694</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>43.90266446653072</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>79.19514304898837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.908079505062182e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>999848.9168416894</v>
+        <v>999848.916841688</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>815912.768225744</v>
+        <v>815912.7682257434</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>815912.7682257437</v>
+        <v>815912.7682257438</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>887402.6706014613</v>
+        <v>887402.6706014614</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>887402.6706014612</v>
+        <v>887402.6706014613</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>916564.7140809828</v>
+        <v>916564.7140809831</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>916564.7140809827</v>
+        <v>916564.714080983</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>532529.6201660751</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.620166075</v>
+        <v>532529.6201660751</v>
       </c>
       <c r="D2" t="n">
-        <v>532544.1353738649</v>
+        <v>532544.1353738654</v>
       </c>
       <c r="E2" t="n">
-        <v>474201.0005882343</v>
+        <v>474201.0005882339</v>
       </c>
       <c r="F2" t="n">
-        <v>474201.0005882342</v>
+        <v>474201.000588234</v>
       </c>
       <c r="G2" t="n">
-        <v>516445.0338102492</v>
+        <v>516445.0338102491</v>
       </c>
       <c r="H2" t="n">
-        <v>516445.0338102492</v>
+        <v>516445.0338102491</v>
       </c>
       <c r="I2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="J2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="K2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117838</v>
       </c>
       <c r="L2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="M2" t="n">
         <v>533677.150411784</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117841</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552074</v>
+        <v>59764.55367552483</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163634</v>
+        <v>1089238.97216363</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.374246494378894e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487397</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983368</v>
+        <v>22821.46782983355</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.4330217968</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.260559656657278e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487401</v>
+        <v>37580.10929487399</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>439568.9169913884</v>
+        <v>439568.9169913867</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.0498736744</v>
+        <v>41244.04987367427</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.0498736744</v>
+        <v>41244.04987367445</v>
       </c>
       <c r="G4" t="n">
-        <v>78272.2102351166</v>
+        <v>78272.21023511657</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.2102351166</v>
+        <v>78272.21023511651</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.8596205746</v>
+        <v>93189.85962057466</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.75099226073</v>
+        <v>93063.7509922608</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.7509922607</v>
+        <v>93063.75099226076</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226068</v>
+        <v>93063.7509922608</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820645</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820642</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.9054318663</v>
+        <v>35148.90543186641</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482642</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26485,28 +26485,28 @@
         <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="O5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35751.2890639653</v>
+        <v>35746.87548609718</v>
       </c>
       <c r="C6" t="n">
-        <v>35751.28906396518</v>
+        <v>35746.87548609718</v>
       </c>
       <c r="D6" t="n">
-        <v>-1938.240724910524</v>
+        <v>-1942.598475058454</v>
       </c>
       <c r="E6" t="n">
-        <v>-732851.5118139007</v>
+        <v>-733080.2662362951</v>
       </c>
       <c r="F6" t="n">
-        <v>356387.4603497334</v>
+        <v>356158.7059273347</v>
       </c>
       <c r="G6" t="n">
-        <v>320074.0711550437</v>
+        <v>320007.7937834993</v>
       </c>
       <c r="H6" t="n">
-        <v>357654.1804499177</v>
+        <v>357587.9030783733</v>
       </c>
       <c r="I6" t="n">
-        <v>331929.2946595344</v>
+        <v>331929.2946595341</v>
       </c>
       <c r="J6" t="n">
         <v>325826.0247229204</v>
       </c>
       <c r="K6" t="n">
-        <v>351235.4577447174</v>
+        <v>351235.4577447168</v>
       </c>
       <c r="L6" t="n">
-        <v>313655.3484498434</v>
+        <v>313655.3484498431</v>
       </c>
       <c r="M6" t="n">
         <v>155586.6662646035</v>
       </c>
       <c r="N6" t="n">
-        <v>357754.7662573281</v>
+        <v>357754.766257328</v>
       </c>
       <c r="O6" t="n">
         <v>357754.7662573283</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790403</v>
+        <v>69.78465283790881</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810303</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,10 +26820,10 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.717808117973618e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951235</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790403</v>
+        <v>69.78465283790881</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755394</v>
+        <v>1019.992047755389</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758405</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959713</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.717808117973618e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104731</v>
+        <v>199.6603204104723</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780181</v>
+        <v>132.2465643780169</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036574</v>
+        <v>202.627234303657</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672124</v>
+        <v>84.22861846672089</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698755</v>
+        <v>90.83829126987486</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241798</v>
+        <v>151.6660875241795</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519115</v>
+        <v>84.46220888519053</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990832</v>
+        <v>7.649035050989831</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317088</v>
+        <v>75.62456067317015</v>
       </c>
       <c r="R10" t="n">
-        <v>171.635114443788</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712633</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.9201465871265</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="D19" t="n">
-        <v>11.49558901075594</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075716</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571895</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571901</v>
+        <v>11.4955890107577</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.49558901075599</v>
+        <v>73.8952832057189</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571895</v>
+        <v>11.49558901075844</v>
       </c>
       <c r="W25" t="n">
-        <v>11.4955890107571</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571895</v>
+        <v>73.8952832057189</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859212</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>55.47778196371175</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544484</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.47778196371091</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,13 +30426,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -30441,13 +30441,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>55.4777819637105</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>55.47778196371164</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810488</v>
+        <v>54.14548214544303</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>97.68472022810509</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810509</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>55.47778196371191</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810488</v>
+        <v>46.72521440565396</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413225</v>
+        <v>0.2805413179413417</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87309377236657</v>
+        <v>2.873093772366767</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993285</v>
+        <v>10.81556915993359</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362234</v>
+        <v>23.81059368362397</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207854</v>
+        <v>35.68590767208098</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102529</v>
+        <v>44.27152403102832</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396429</v>
+        <v>49.26060069396766</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356507</v>
+        <v>50.0576887135685</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328605</v>
+        <v>47.26805598328928</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219660964</v>
+        <v>40.3421921966124</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783602</v>
+        <v>30.29530624783809</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313162</v>
+        <v>17.62255356313282</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587893</v>
+        <v>6.392835282588331</v>
       </c>
       <c r="T8" t="n">
-        <v>1.22806961928814</v>
+        <v>1.228069619288224</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353058</v>
+        <v>0.02244330543530734</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796427</v>
+        <v>0.1501028381796529</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840233</v>
+        <v>1.449677410840332</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693837</v>
+        <v>5.168014384694191</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906878</v>
+        <v>14.18142647906975</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710484</v>
+        <v>24.2383166371065</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264566</v>
+        <v>32.59140791264789</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665769</v>
+        <v>38.03263579666029</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655539</v>
+        <v>39.03924649655806</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360846962</v>
+        <v>35.71328360847207</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449685</v>
+        <v>28.66305863449881</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447509</v>
+        <v>19.1604956244764</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767641</v>
+        <v>9.319542882768278</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608711</v>
+        <v>2.788094384608902</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731889979</v>
+        <v>0.6050197731890393</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722344914</v>
+        <v>0.009875186722345591</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486794</v>
+        <v>0.125841177248688</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466810987</v>
+        <v>1.118842466811063</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078469</v>
+        <v>3.784387403078727</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481633</v>
+        <v>8.896971231482242</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489202</v>
+        <v>14.62045677489302</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477185</v>
+        <v>18.70915102477313</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908162</v>
+        <v>19.72617653908297</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115474</v>
+        <v>19.25713215115606</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874971</v>
+        <v>17.78707839875092</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287664</v>
+        <v>15.21991838287768</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852351</v>
+        <v>10.53748257852423</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381528</v>
+        <v>5.658276933381916</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233803</v>
+        <v>2.193068516233953</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625391</v>
+        <v>0.5376850300625758</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564339</v>
+        <v>0.006864064213564808</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019252</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573244</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806101</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546663</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322367</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019269</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>355.2070037623522</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>847.8674262666555</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>630.7064245296393</v>
+        <v>827.1370117794545</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>895.850364009541</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>322.020538905437</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>418.5312714465564</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165831</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687129</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
